--- a/app/tests/plans_export.xlsx
+++ b/app/tests/plans_export.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29000</v>
+        <v>2900000</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>500000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>950000</v>
+        <v>95000000</v>
       </c>
     </row>
   </sheetData>

--- a/app/tests/plans_export.xlsx
+++ b/app/tests/plans_export.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,22 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>slot</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>guest_pass</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>price</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>created_at</t>
         </is>
       </c>
     </row>
@@ -450,15 +465,26 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>2900000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-11-02 17:02:26</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -468,7 +494,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -476,7 +502,18 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
         <v>50000000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-11-02 17:02:26</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -486,7 +523,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -494,7 +531,18 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
         <v>95000000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-11-02 17:02:26</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/app/tests/plans_export.xlsx
+++ b/app/tests/plans_export.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-11-02 17:02:26</t>
+          <t>2025-11-02 21:20:23</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-11-02 17:02:26</t>
+          <t>2025-11-02 21:20:23</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,355 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-11-02 17:02:26</t>
+          <t>2025-11-02 21:20:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1 Slot</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>daily</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-11-02 21:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5 Slot</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-11-02 21:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100 Slot</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-11-02 21:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>200 Slot</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>yearly</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-11-02 21:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1 Slot</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>daily</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-11-02 21:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5 Slot</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-11-02 21:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>100 Slot</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-11-02 21:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>200 Slot</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>yearly</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-11-02 21:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1 Slot</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>daily</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-11-02 21:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5 Slot</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-11-02 21:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>100 Slot</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-11-02 21:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>200 Slot</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>yearly</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-11-02 21:23:52</t>
         </is>
       </c>
     </row>

--- a/app/tests/plans_export.xlsx
+++ b/app/tests/plans_export.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-11-02 21:20:23</t>
+          <t>2025-11-03 14:14:47</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-11-02 21:20:23</t>
+          <t>2025-11-03 14:14:47</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-11-02 21:20:24</t>
+          <t>2025-11-03 14:14:47</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-11-02 21:22:25</t>
+          <t>2025-11-03 14:16:43</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-11-02 21:22:25</t>
+          <t>2025-11-03 14:16:43</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-11-02 21:22:25</t>
+          <t>2025-11-03 14:16:43</t>
         </is>
       </c>
     </row>
@@ -657,239 +657,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-11-02 21:22:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1 Slot</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>600000</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2025-11-02 21:23:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5 Slot</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2900000</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-11-02 21:23:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>100 Slot</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>100</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2025-11-02 21:23:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>200 Slot</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>yearly</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>200</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="n">
-        <v>95000000</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2025-11-02 21:23:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1 Slot</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>600000</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-11-02 21:23:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5 Slot</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2900000</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2025-11-02 21:23:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>100 Slot</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>50000000</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-11-02 21:23:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>200 Slot</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>yearly</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>200</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" t="n">
-        <v>95000000</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2025-11-02 21:23:52</t>
+          <t>2025-11-03 14:16:43</t>
         </is>
       </c>
     </row>
